--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="54">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -147,6 +147,36 @@
   </si>
   <si>
     <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPOGRAPHY NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello</t>
   </si>
 </sst>
 </file>
@@ -1596,32 +1626,39 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1"/>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="5" spans="2:10" ht="15" customHeight="1"/>
     <row r="6" spans="2:10"/>
     <row r="7" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="61">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t xml:space="preserve">Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Grad C</t>
   </si>
 </sst>
 </file>
@@ -1659,8 +1680,40 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1"/>
-    <row r="6" spans="2:10"/>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="7" spans="2:10"/>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="65">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t xml:space="preserve">20 Grad C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1481,9 @@
       </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
       <c r="I5"/>
       <c r="K5" s="8" t="s">
         <v>1</v>
@@ -1685,7 +1699,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -1708,7 +1722,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45505" uniqueCount="254">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -210,6 +210,573 @@
   </si>
   <si>
     <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A&lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur&lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur: &lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur: &lt;d&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur: &lt;d&gt; C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur: &lt;d&gt; °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftdruck: &lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftdruck: &lt;p&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftdruck: &lt;p&gt; Pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pflanzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feuchtigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfeucht:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfeucht: &lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfeucht: &lt;d&gt; %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftdruck: &lt;p&gt; kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-12-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-12-1995 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-12-1995 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;d&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;d&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt; &lt;d&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt; | &lt;d&gt;  ° C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt; | &lt;d&gt; ° C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pageOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.12.1995 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.12.1995 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;da&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;date&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;val&gt; &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;val&gt; &lt;unit&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">° C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°GradkP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">° GradkPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;date&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;date&gt;|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;date&gt; |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überblick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur Verlauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">° GradkPaC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a-.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a-.:&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a-.:&lt;/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a-.:/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9;a-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,a-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a-.:/\s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Verlauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfeuchtigkeit Verlauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfeuchtigkeit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfeuchtigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfeuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfeuchigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a-.:/\s&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a-.:/\s%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftdruck Verlauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait for update</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +2013,9 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1479,11 +2048,11 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
       <c r="G5"/>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="K5" s="8" t="s">
         <v>1</v>
@@ -1507,14 +2076,20 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" t="s">
+        <v>237</v>
+      </c>
       <c r="I6"/>
       <c r="K6" s="8" t="s">
         <v>2</v>
@@ -1531,6 +2106,26 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7"/>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1679,16 +2274,16 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1696,16 +2291,16 @@
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1713,103 +2308,1449 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
       </c>
       <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10"/>
-    <row r="8" spans="2:10"/>
-    <row r="9" spans="2:10"/>
-    <row r="10" spans="2:10"/>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
-    <row r="15" spans="2:10"/>
-    <row r="16" spans="2:10"/>
-    <row r="17" spans="4:4"/>
-    <row r="18" spans="4:4"/>
-    <row r="19" spans="4:4"/>
-    <row r="20" spans="4:4"/>
-    <row r="21" spans="4:4"/>
-    <row r="22" spans="4:4"/>
-    <row r="23" spans="4:4"/>
-    <row r="24" spans="4:4"/>
-    <row r="25" spans="4:4"/>
-    <row r="26" spans="4:4"/>
-    <row r="27" spans="4:4"/>
-    <row r="28" spans="4:4"/>
-    <row r="29" spans="4:4"/>
-    <row r="30" spans="4:4"/>
-    <row r="31" spans="4:4"/>
-    <row r="32" spans="4:4"/>
-    <row r="33" spans="4:4"/>
-    <row r="34" spans="4:4"/>
-    <row r="35" spans="4:4"/>
-    <row r="36" spans="4:4"/>
-    <row r="37" spans="4:4"/>
-    <row r="38" spans="4:4"/>
-    <row r="39" spans="4:4"/>
-    <row r="40" spans="4:4"/>
-    <row r="41" spans="4:4"/>
-    <row r="42" spans="4:4"/>
-    <row r="43" spans="4:4"/>
-    <row r="44" spans="4:4"/>
-    <row r="45" spans="4:4"/>
-    <row r="46" spans="4:4"/>
-    <row r="47" spans="4:4"/>
-    <row r="48" spans="4:4"/>
-    <row r="49" spans="4:4"/>
-    <row r="50" spans="4:4"/>
-    <row r="51" spans="4:4"/>
-    <row r="52" spans="4:4"/>
-    <row r="53" spans="4:4"/>
-    <row r="54" spans="4:4"/>
-    <row r="55" spans="4:4"/>
-    <row r="56" spans="4:4"/>
-    <row r="57" spans="4:4"/>
-    <row r="58" spans="4:4"/>
-    <row r="59" spans="4:4"/>
-    <row r="60" spans="4:4"/>
-    <row r="61" spans="4:4"/>
-    <row r="62" spans="4:4"/>
-    <row r="63" spans="4:4"/>
-    <row r="64" spans="4:4"/>
-    <row r="65" spans="4:4"/>
-    <row r="66" spans="4:4"/>
-    <row r="67" spans="4:4"/>
-    <row r="68" spans="4:4"/>
-    <row r="69" spans="4:4"/>
-    <row r="70" spans="4:4"/>
-    <row r="71" spans="4:4"/>
-    <row r="72" spans="4:4"/>
-    <row r="73" spans="4:4"/>
-    <row r="74" spans="4:4"/>
-    <row r="75" spans="4:4"/>
-    <row r="76" spans="4:4"/>
-    <row r="77" spans="4:4"/>
-    <row r="78" spans="4:4"/>
-    <row r="79" spans="4:4"/>
-    <row r="80" spans="4:4"/>
-    <row r="81" spans="4:4"/>
-    <row r="82" spans="4:4"/>
-    <row r="83" spans="4:4"/>
-    <row r="84" spans="4:4"/>
-    <row r="85" spans="4:4"/>
-    <row r="86" spans="4:4"/>
-    <row r="87" spans="4:4"/>
-    <row r="88" spans="4:4"/>
-    <row r="89" spans="4:4"/>
-    <row r="90" spans="4:4"/>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="B52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="B54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="B60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="B62" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="B64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="B65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="B66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="B69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="B71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="B72" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="B73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="B74" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="B77" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="B78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="B79" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="B80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="B81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="B82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="B83" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" t="s">
+        <v>253</v>
+      </c>
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="B84" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" t="s">
+        <v>208</v>
+      </c>
+      <c r="F84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="B85" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="B86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" t="s">
+        <v>223</v>
+      </c>
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="B87" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="B88" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" t="s">
+        <v>246</v>
+      </c>
+      <c r="F88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="B89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="91" spans="4:4"/>
     <row r="92" spans="4:4"/>
     <row r="93" spans="4:4"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45505" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49298" uniqueCount="260">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -777,6 +777,24 @@
   </si>
   <si>
     <t xml:space="preserve">wait for update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???.?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°CGgradkP a-.:/\s%,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenfeucht: &lt;d&gt;%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftdruck: &lt;p&gt;kPa</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H6" t="s">
         <v>237</v>
@@ -2113,7 +2131,7 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2121,7 +2139,9 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>257</v>
+      </c>
       <c r="H7" t="s">
         <v>64</v>
       </c>
@@ -2317,7 +2337,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -2351,7 +2371,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -3745,7 +3765,7 @@
         <v>55</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="F90" t="s">
         <v>50</v>
